--- a/JavaApplication19/src/excel/DeudasP.xlsx
+++ b/JavaApplication19/src/excel/DeudasP.xlsx
@@ -1,26 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D397E3F-E73E-4B32-9A73-18FAE34A5CEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4C8DAA4E-B145-4E7B-ABC5-F58513D090FB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>CANTIDAD A PAGAR</t>
+  </si>
+  <si>
+    <t>CREDITO DE CAJA VALES</t>
+  </si>
+  <si>
+    <t>CREDITO PARA DANTE</t>
+  </si>
+  <si>
+    <t>INVERSIÒN DEL AVENGER</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +60,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF03DF7B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +114,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Salida" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -68,8 +182,63 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>988594</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3367</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="6 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D80C1BE-180E-4F49-9787-A6D05E170723}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1071562" y="23813"/>
+          <a:ext cx="964782" cy="741554"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -85,7 +254,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +266,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -144,6 +313,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -179,6 +365,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -330,13 +533,170 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D005CDC8-9AED-4E0B-9738-C0C250B1EDAC}">
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="26" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>44004</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>17560</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>44004</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44004</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="10">
+        <f>SUM(C2:C4)</f>
+        <v>75260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/JavaApplication19/src/excel/DeudasP.xlsx
+++ b/JavaApplication19/src/excel/DeudasP.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D397E3F-E73E-4B32-9A73-18FAE34A5CEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC6B6F9-515E-4902-AEE2-2B7948CD7EBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4C8DAA4E-B145-4E7B-ABC5-F58513D090FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4C8DAA4E-B145-4E7B-ABC5-F58513D090FB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="DeudasPagar" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>CANTIDAD A PAGAR</t>
   </si>
@@ -43,6 +37,15 @@
   </si>
   <si>
     <t>INVERSIÒN DEL AVENGER</t>
+  </si>
+  <si>
+    <t>22  julio</t>
+  </si>
+  <si>
+    <t>Banco Azteca</t>
+  </si>
+  <si>
+    <t>$15000</t>
   </si>
 </sst>
 </file>
@@ -149,9 +152,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="1" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -162,12 +162,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Salida" xfId="1" builtinId="21"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -238,7 +241,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -540,158 +543,168 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="26" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="26" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
+    <row r="1" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>44004</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>17560</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>44004</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>2700</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44004</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>55000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="10">
-        <f>SUM(C2:C4)</f>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="9">
+        <f>SUM(C2:C5)</f>
         <v>75260</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/JavaApplication19/src/excel/DeudasP.xlsx
+++ b/JavaApplication19/src/excel/DeudasP.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC6B6F9-515E-4902-AEE2-2B7948CD7EBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE6945D-9256-4F0C-8080-F3F9F847EFF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4C8DAA4E-B145-4E7B-ABC5-F58513D090FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4C8DAA4E-B145-4E7B-ABC5-F58513D090FB}"/>
   </bookViews>
   <sheets>
-    <sheet name="DeudasPagar" sheetId="1" r:id="rId1"/>
+    <sheet name="DEUDAS" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>CANTIDAD A PAGAR</t>
   </si>
@@ -33,19 +39,7 @@
     <t>CREDITO DE CAJA VALES</t>
   </si>
   <si>
-    <t>CREDITO PARA DANTE</t>
-  </si>
-  <si>
     <t>INVERSIÒN DEL AVENGER</t>
-  </si>
-  <si>
-    <t>22  julio</t>
-  </si>
-  <si>
-    <t>Banco Azteca</t>
-  </si>
-  <si>
-    <t>$15000</t>
   </si>
 </sst>
 </file>
@@ -55,7 +49,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +60,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -139,38 +149,38 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="1" builtinId="21"/>
+    <cellStyle name="Salida" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -190,15 +200,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
+      <xdr:colOff>154781</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>988594</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>3367</xdr:rowOff>
+      <xdr:colOff>785813</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>496932</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -227,8 +237,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1071562" y="23813"/>
-          <a:ext cx="964782" cy="741554"/>
+          <a:off x="1202531" y="11906"/>
+          <a:ext cx="631032" cy="485026"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -241,7 +251,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -537,174 +547,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D005CDC8-9AED-4E0B-9738-C0C250B1EDAC}">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="26" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="26" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+    <row r="2" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>44004</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="3">
         <v>17560</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+    <row r="3" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>44004</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>44004</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="8">
+      <c r="C3" s="6">
         <v>55000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
+    <row r="4" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8">
+        <f>SUM(C2:C3)</f>
+        <v>72560</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="9">
-        <f>SUM(C2:C5)</f>
-        <v>75260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/JavaApplication19/src/excel/DeudasP.xlsx
+++ b/JavaApplication19/src/excel/DeudasP.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE6945D-9256-4F0C-8080-F3F9F847EFF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1A2A65-464E-4739-A6CF-56CF62CE9FFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4C8DAA4E-B145-4E7B-ABC5-F58513D090FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4C8DAA4E-B145-4E7B-ABC5-F58513D090FB}"/>
   </bookViews>
   <sheets>
-    <sheet name="DEUDAS" sheetId="1" r:id="rId1"/>
+    <sheet name="deudasPagar" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -171,16 +171,16 @@
     <xf numFmtId="44" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Salida" xfId="1" builtinId="21"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -251,7 +251,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -553,21 +553,21 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="26" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="26" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10" t="s">
+    <row r="1" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44004</v>
       </c>
@@ -578,7 +578,7 @@
         <v>17560</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>44004</v>
       </c>
@@ -589,7 +589,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8">
@@ -597,103 +597,103 @@
         <v>72560</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/JavaApplication19/src/excel/DeudasP.xlsx
+++ b/JavaApplication19/src/excel/DeudasP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>CANTIDAD A PAGAR</t>
   </si>
@@ -40,6 +40,21 @@
   </si>
   <si>
     <t>INVERSIÒN DEL AVENGER</t>
+  </si>
+  <si>
+    <t>22  julio</t>
+  </si>
+  <si>
+    <t>Alejandro Baca</t>
+  </si>
+  <si>
+    <t>$8900</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>$5000</t>
   </si>
 </sst>
 </file>
@@ -555,9 +570,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="26" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="3" max="26" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -589,17 +604,37 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8">
+    <row r="4">
+      <c r="A4" t="s" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="7">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8">
         <f>SUM(C2:C3)</f>
         <v>72560</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/JavaApplication19/src/excel/DeudasP.xlsx
+++ b/JavaApplication19/src/excel/DeudasP.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="7">
   <si>
     <t>CANTIDAD A PAGAR</t>
   </si>
@@ -634,22 +634,92 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8">
+    <row r="7">
+      <c r="A7" t="s" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s" s="7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="7">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s" s="7">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s" s="7">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="7">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="7">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s" s="7">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="7">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8">
         <f>SUM(C2:C3)</f>
         <v>72560</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/JavaApplication19/src/excel/DeudasP.xlsx
+++ b/JavaApplication19/src/excel/DeudasP.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
   <si>
     <t>CANTIDAD A PAGAR</t>
   </si>
@@ -52,6 +52,21 @@
   </si>
   <si>
     <t>Prestamista</t>
+  </si>
+  <si>
+    <t>24  julio</t>
+  </si>
+  <si>
+    <t>Erick Ivan</t>
+  </si>
+  <si>
+    <t>$15000</t>
+  </si>
+  <si>
+    <t>Banco Az</t>
+  </si>
+  <si>
+    <t>$50000</t>
   </si>
 </sst>
 </file>
@@ -559,7 +574,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D005CDC8-9AED-4E0B-9738-C0C250B1EDAC}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
@@ -711,16 +726,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8">
+    <row r="14">
+      <c r="A14" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s" s="7">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8">
         <f>SUM(C2:C3)</f>
         <v>72560</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -805,7 +830,6 @@
     <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/JavaApplication19/src/excel/DeudasP.xlsx
+++ b/JavaApplication19/src/excel/DeudasP.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
   <si>
     <t>CANTIDAD A PAGAR</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>$50000</t>
+  </si>
+  <si>
+    <t>27  julio</t>
+  </si>
+  <si>
+    <t>alex</t>
+  </si>
+  <si>
+    <t>$23</t>
   </si>
 </sst>
 </file>
@@ -726,27 +735,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8">
+    <row r="14"/>
+    <row r="15">
+      <c r="A15" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8">
         <f>SUM(C2:C3)</f>
         <v>72560</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/JavaApplication19/src/excel/DeudasP.xlsx
+++ b/JavaApplication19/src/excel/DeudasP.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1A2A65-464E-4739-A6CF-56CF62CE9FFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F36740-CAC1-4190-894D-C989CE63D9A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4C8DAA4E-B145-4E7B-ABC5-F58513D090FB}"/>
   </bookViews>
@@ -17,21 +17,15 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
   <si>
     <t>CANTIDAD A PAGAR</t>
   </si>
@@ -52,21 +46,6 @@
   </si>
   <si>
     <t>Prestamista</t>
-  </si>
-  <si>
-    <t>24  julio</t>
-  </si>
-  <si>
-    <t>Erick Ivan</t>
-  </si>
-  <si>
-    <t>$15000</t>
-  </si>
-  <si>
-    <t>Banco Az</t>
-  </si>
-  <si>
-    <t>$50000</t>
   </si>
   <si>
     <t>27  julio</t>
@@ -583,17 +562,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D005CDC8-9AED-4E0B-9738-C0C250B1EDAC}">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:Z100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C14" sqref="A14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="3" max="26" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="26" width="15.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -625,137 +604,137 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s" s="7">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s" s="7">
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s" s="7">
+      <c r="C5" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s" s="7">
+      <c r="C6" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s" s="7">
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s" s="7">
+      <c r="C8" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s" s="7">
+      <c r="C9" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C10" t="s" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s" s="7">
+      <c r="C10" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C11" t="s" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s" s="7">
+      <c r="C11" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C12" t="s" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s" s="7">
+      <c r="C12" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C13" t="s" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14"/>
-    <row r="15">
-      <c r="A15" t="s" s="7">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s" s="7">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8">
+      <c r="C13" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8">
         <f>SUM(C2:C3)</f>
         <v>72560</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/JavaApplication19/src/excel/DeudasP.xlsx
+++ b/JavaApplication19/src/excel/DeudasP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
   <si>
     <t>CANTIDAD A PAGAR</t>
   </si>
@@ -55,6 +55,21 @@
   </si>
   <si>
     <t>$23</t>
+  </si>
+  <si>
+    <t>30  julio</t>
+  </si>
+  <si>
+    <t>el ivan</t>
+  </si>
+  <si>
+    <t>190000</t>
+  </si>
+  <si>
+    <t>el alex</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
 </sst>
 </file>
@@ -64,7 +79,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,8 +111,68 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,8 +208,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="22B473"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="22B473"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -157,12 +252,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -191,6 +304,36 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -562,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D005CDC8-9AED-4E0B-9738-C0C250B1EDAC}">
-  <dimension ref="A1:Z100"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C14" sqref="A14:C14"/>
@@ -570,9 +713,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="26" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="3" max="26" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -582,7 +725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44004</v>
       </c>
@@ -593,7 +736,7 @@
         <v>17560</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>44004</v>
       </c>
@@ -604,7 +747,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3" customHeight="true">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -615,7 +758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3" customHeight="true">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -626,7 +769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3" customHeight="true">
       <c r="A6" s="7" t="s">
         <v>3</v>
       </c>
@@ -637,7 +780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3" customHeight="true">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
@@ -648,7 +791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3" customHeight="true">
       <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
@@ -659,7 +802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3" customHeight="true">
       <c r="A9" s="7" t="s">
         <v>3</v>
       </c>
@@ -670,7 +813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3" customHeight="true">
       <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
@@ -681,7 +824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3" customHeight="true">
       <c r="A11" s="7" t="s">
         <v>3</v>
       </c>
@@ -692,7 +835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3" customHeight="true">
       <c r="A12" s="7" t="s">
         <v>3</v>
       </c>
@@ -703,7 +846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3" customHeight="true">
       <c r="A13" s="7" t="s">
         <v>3</v>
       </c>
@@ -714,7 +857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3" customHeight="true">
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
@@ -725,16 +868,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8">
-        <f>SUM(C2:C3)</f>
-        <v>72560</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" ht="28.8" customHeight="true">
+      <c r="A15" t="s" s="16">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s" s="17">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n" s="19">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3" customHeight="true">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" t="n" s="20">
+        <f>SUM(C2:C15)</f>
+        <v>72683.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -817,7 +970,6 @@
     <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/JavaApplication19/src/excel/DeudasP.xlsx
+++ b/JavaApplication19/src/excel/DeudasP.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
   <si>
     <t>CANTIDAD A PAGAR</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>123</t>
+  </si>
+  <si>
+    <t>31  julio</t>
+  </si>
+  <si>
+    <t>un compa</t>
+  </si>
+  <si>
+    <t>$1234</t>
   </si>
 </sst>
 </file>
@@ -79,7 +88,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +119,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -275,7 +302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -333,6 +360,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -879,16 +915,26 @@
         <v>123.0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3" customHeight="true">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" t="n" s="20">
+    <row r="16" ht="28.8" customHeight="true">
+      <c r="A16" t="s" s="21">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s" s="22">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s" s="23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3" customHeight="true">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" t="n" s="20">
         <f>SUM(C2:C15)</f>
         <v>72683.0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/JavaApplication19/src/excel/DeudasP.xlsx
+++ b/JavaApplication19/src/excel/DeudasP.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
   <si>
     <t>CANTIDAD A PAGAR</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>$1234</t>
+  </si>
+  <si>
+    <t>123455</t>
+  </si>
+  <si>
+    <t>alvaro</t>
+  </si>
+  <si>
+    <t>123478</t>
   </si>
 </sst>
 </file>
@@ -88,7 +97,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +128,66 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -302,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -369,6 +438,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -741,7 +840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D005CDC8-9AED-4E0B-9738-C0C250B1EDAC}">
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C14" sqref="A14:C14"/>
@@ -929,9 +1028,9 @@
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3" customHeight="true">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
-      <c r="C17" t="n" s="20">
-        <f>SUM(C2:C15)</f>
-        <v>72683.0</v>
+      <c r="C17" t="n" s="33">
+        <f>SUM(C2:C16)</f>
+        <v>196161.0</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1014,8 +1113,6 @@
     <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/JavaApplication19/src/excel/DeudasP.xlsx
+++ b/JavaApplication19/src/excel/DeudasP.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
@@ -14,10 +14,11 @@
   </bookViews>
   <sheets>
     <sheet name="deudasPagar" sheetId="1" r:id="rId1"/>
+    <sheet name="PACO CHAVEZ" r:id="rId6" sheetId="2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>CANTIDAD A PAGAR</t>
   </si>
@@ -43,6 +44,21 @@
   <si>
     <t>INVERSIÒN DEL AVENGER</t>
   </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>MONTO</t>
+  </si>
+  <si>
+    <t>02  agosto</t>
+  </si>
+  <si>
+    <t>PACO CHAVEZ</t>
+  </si>
+  <si>
+    <t>$324.8</t>
+  </si>
 </sst>
 </file>
 
@@ -51,7 +67,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,8 +105,62 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,8 +201,23 @@
         <fgColor rgb="FF22B473"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="22B473"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -155,12 +240,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -189,6 +292,33 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -560,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D005CDC8-9AED-4E0B-9738-C0C250B1EDAC}">
-  <dimension ref="A1:Z97"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -568,9 +698,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="26" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="3" max="26" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
@@ -710,4 +840,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="17">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="18">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="12"/>
+      <c r="B3" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/DeudasP.xlsx
+++ b/JavaApplication19/src/excel/DeudasP.xlsx
@@ -15,6 +15,7 @@
   <sheets>
     <sheet name="deudasPagar" sheetId="1" r:id="rId1"/>
     <sheet name="PACO CHAVEZ" r:id="rId6" sheetId="2"/>
+    <sheet name="Mario Angel" r:id="rId7" sheetId="3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>CANTIDAD A PAGAR</t>
   </si>
@@ -59,6 +60,15 @@
   <si>
     <t>$324.8</t>
   </si>
+  <si>
+    <t>04  agosto</t>
+  </si>
+  <si>
+    <t>Mario Angel</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
 </sst>
 </file>
 
@@ -67,7 +77,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +114,90 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -263,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -318,6 +412,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -690,7 +826,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D005CDC8-9AED-4E0B-9738-C0C250B1EDAC}">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -710,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44004</v>
       </c>
@@ -721,7 +857,7 @@
         <v>17560</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>44004</v>
       </c>
@@ -732,16 +868,16 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" ht="28.5" customHeight="true" x14ac:dyDescent="0.5">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
-      <c r="C4" s="9">
+      <c r="C4" t="n" s="24">
         <f>SUM(C2:C3)</f>
-        <v>72560</v>
+        <v>73560.0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -751,9 +887,9 @@
     <row r="13" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="14" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="15" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="17" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -832,7 +968,6 @@
     <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -876,4 +1011,37 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="31">
+        <v>8</v>
+      </c>
+      <c r="B2" t="n" s="33">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="26"/>
+      <c r="B3" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/DeudasP.xlsx
+++ b/JavaApplication19/src/excel/DeudasP.xlsx
@@ -16,6 +16,7 @@
     <sheet name="deudasPagar" sheetId="1" r:id="rId1"/>
     <sheet name="PACO CHAVEZ" r:id="rId6" sheetId="2"/>
     <sheet name="Mario Angel" r:id="rId7" sheetId="3"/>
+    <sheet name="gcgn" r:id="rId8" sheetId="4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>CANTIDAD A PAGAR</t>
   </si>
@@ -69,6 +70,12 @@
   <si>
     <t>1000</t>
   </si>
+  <si>
+    <t>gcgn</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
 </sst>
 </file>
 
@@ -77,7 +84,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +121,90 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -357,7 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -454,6 +545,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="10" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -868,16 +1001,26 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.5" customHeight="true" x14ac:dyDescent="0.5">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" t="n" s="24">
-        <f>SUM(C2:C3)</f>
-        <v>73560.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" ht="28.5" customHeight="true">
+      <c r="A4" t="s" s="34">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s" s="35">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n" s="37">
+        <v>1234.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" customHeight="true" x14ac:dyDescent="0.5">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" t="n" s="38">
+        <f>SUM(C2:C4)</f>
+        <v>73794.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1044,4 +1187,37 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="45">
+        <v>8</v>
+      </c>
+      <c r="B2" t="n" s="47">
+        <v>1234.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="40"/>
+      <c r="B3" s="43"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/DeudasP.xlsx
+++ b/JavaApplication19/src/excel/DeudasP.xlsx
@@ -17,6 +17,8 @@
     <sheet name="PACO CHAVEZ" r:id="rId6" sheetId="2"/>
     <sheet name="Mario Angel" r:id="rId7" sheetId="3"/>
     <sheet name="gcgn" r:id="rId8" sheetId="4"/>
+    <sheet name="CAJA" r:id="rId9" sheetId="5"/>
+    <sheet name="SAUBWAY" r:id="rId10" sheetId="6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
   <si>
     <t>CANTIDAD A PAGAR</t>
   </si>
@@ -75,16 +77,32 @@
   </si>
   <si>
     <t>1234</t>
+  </si>
+  <si>
+    <t>06  agosto</t>
+  </si>
+  <si>
+    <t>CAJA</t>
+  </si>
+  <si>
+    <t>7000</t>
+  </si>
+  <si>
+    <t>SAUBWAY</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="74" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,8 +362,200 @@
       <color indexed="8"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,6 +611,16 @@
         <fgColor rgb="EEEEEE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="03DF7B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="03DF7B"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -448,7 +668,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -587,6 +807,102 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="10" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="10" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="10" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="10" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="10" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="12" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="12" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="12" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="12" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="12" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="10" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="10" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="55" fillId="10" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="10" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="10" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="10" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="59" fillId="10" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="60" fillId="12" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="61" fillId="12" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="62" fillId="12" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="64" fillId="12" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="65" fillId="12" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="10" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="10" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="69" fillId="10" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="10" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="10" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="72" fillId="10" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="73" fillId="12" borderId="5" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1012,17 +1328,37 @@
         <v>1234.0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.5" customHeight="true" x14ac:dyDescent="0.5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" t="n" s="38">
-        <f>SUM(C2:C4)</f>
-        <v>73794.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="5" ht="28.5" customHeight="true">
+      <c r="A5" t="s" s="48">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s" s="49">
+        <v>14</v>
+      </c>
+      <c r="C5" t="n" s="51">
+        <v>7000.0</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5" customHeight="true">
+      <c r="A6" t="s" s="62">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s" s="63">
+        <v>16</v>
+      </c>
+      <c r="C6" t="n" s="65">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" customHeight="true" x14ac:dyDescent="0.5">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" t="n" s="66">
+        <f>SUM(C2:C6)</f>
+        <v>81794.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="10" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1220,4 +1556,81 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="59">
+        <v>13</v>
+      </c>
+      <c r="B2" t="n" s="61">
+        <v>7000.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="54"/>
+      <c r="B3" s="57"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="73">
+        <v>13</v>
+      </c>
+      <c r="B2" t="n" s="75">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" t="s" s="76">
+        <v>13</v>
+      </c>
+      <c r="B3" t="n" s="78">
+        <v>-100.0</v>
+      </c>
+    </row>
+    <row r="4" ht="30.0" customHeight="true">
+      <c r="A4" s="68"/>
+      <c r="B4" t="n" s="79">
+        <f>B2+B3</f>
+        <v>900.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/DeudasP.xlsx
+++ b/JavaApplication19/src/excel/DeudasP.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>CANTIDAD A PAGAR</t>
   </si>
@@ -42,6 +42,9 @@
   <si>
     <t>MONTO</t>
   </si>
+  <si>
+    <t>08  agosto</t>
+  </si>
 </sst>
 </file>
 
@@ -51,7 +54,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +145,42 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -333,7 +372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -406,6 +445,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="25" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="30" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -805,16 +862,16 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="n" s="20">
-        <v>21000.0</v>
+      <c r="C2" t="n" s="26">
+        <v>21010.0</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" t="n" s="25">
+      <c r="C3" t="n" s="31">
         <f>C2</f>
-        <v>21000.0</v>
+        <v>21010.0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -916,7 +973,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -959,11 +1016,19 @@
         <v>5000.0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" t="n" s="24">
-        <f>SUM(B2:B4)</f>
-        <v>21000.0</v>
+    <row r="5" ht="28.8" customHeight="true">
+      <c r="A5" t="s" s="27">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n" s="29">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" t="n" s="30">
+        <f>SUM(B2:B5)</f>
+        <v>21010.0</v>
       </c>
     </row>
   </sheetData>

--- a/JavaApplication19/src/excel/DeudasP.xlsx
+++ b/JavaApplication19/src/excel/DeudasP.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>CANTIDAD A PAGAR</t>
   </si>
@@ -45,6 +45,9 @@
   <si>
     <t>08  agosto</t>
   </si>
+  <si>
+    <t>10  agosto</t>
+  </si>
 </sst>
 </file>
 
@@ -54,7 +57,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +148,42 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -372,7 +411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -463,6 +502,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="31" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="35" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="36" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="37" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -862,16 +919,16 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="n" s="26">
-        <v>21010.0</v>
+      <c r="C2" t="n" s="32">
+        <v>27010.0</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" t="n" s="31">
+      <c r="C3" t="n" s="37">
         <f>C2</f>
-        <v>21010.0</v>
+        <v>27010.0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -973,7 +1030,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1024,11 +1081,19 @@
         <v>10.0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" t="n" s="30">
-        <f>SUM(B2:B5)</f>
-        <v>21010.0</v>
+    <row r="6" ht="28.8" customHeight="true">
+      <c r="A6" t="s" s="33">
+        <v>6</v>
+      </c>
+      <c r="B6" t="n" s="35">
+        <v>6000.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" t="n" s="36">
+        <f>SUM(B2:B6)</f>
+        <v>27010.0</v>
       </c>
     </row>
   </sheetData>

--- a/JavaApplication19/src/excel/DeudasP.xlsx
+++ b/JavaApplication19/src/excel/DeudasP.xlsx
@@ -15,6 +15,9 @@
   <sheets>
     <sheet name="deudasPagar" sheetId="1" r:id="rId1"/>
     <sheet name="Banco Azteca" sheetId="2" r:id="rId2"/>
+    <sheet name="ALFREDO PAYAN" r:id="rId6" sheetId="3"/>
+    <sheet name="MARIO ANGEL" r:id="rId7" sheetId="4"/>
+    <sheet name="PACO CHAVEZ" r:id="rId8" sheetId="5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>CANTIDAD A PAGAR</t>
   </si>
@@ -48,6 +51,27 @@
   <si>
     <t>10  agosto</t>
   </si>
+  <si>
+    <t>13  AGOSTO</t>
+  </si>
+  <si>
+    <t>ALFREDO PAYAN</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>MARIO ANGEL</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>PACO CHAVEZ</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
 </sst>
 </file>
 
@@ -57,7 +81,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="86" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,8 +317,296 @@
       <color indexed="8"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -347,6 +659,11 @@
     <fill>
       <patternFill patternType="none">
         <fgColor rgb="03DF7B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="22B473"/>
       </patternFill>
     </fill>
   </fills>
@@ -411,7 +728,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -520,6 +837,150 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="37" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="41" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="42" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="43" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="44" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="46" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="47" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="51" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="55" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="56" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="57" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="58" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="8" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="60" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="61" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="8" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="65" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="69" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="70" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="71" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="72" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="8" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="74" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="75" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="8" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="79" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="80" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="83" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="84" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="85" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -892,7 +1353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D005CDC8-9AED-4E0B-9738-C0C250B1EDAC}">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -912,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -923,27 +1384,47 @@
         <v>27010.0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" t="n" s="37">
-        <f>C2</f>
-        <v>27010.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" ht="28.8" customHeight="true">
+      <c r="A3" t="s" s="52">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s" s="53">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n" s="55">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" customHeight="true">
+      <c r="A4" t="s" s="66">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="67">
+        <v>12</v>
+      </c>
+      <c r="C4" t="n" s="80">
+        <v>28010.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" t="n" s="85">
+        <f>C2+C3+C4</f>
+        <v>57020.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1018,7 +1499,6 @@
     <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -1099,4 +1579,114 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="49">
+        <v>7</v>
+      </c>
+      <c r="B2" t="n" s="51">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" t="s" s="81">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n" s="83">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="4" ht="30.0" customHeight="true">
+      <c r="A4" s="44"/>
+      <c r="B4" t="n" s="84">
+        <f>SUM(B2:B3)</f>
+        <v>2000.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="63">
+        <v>7</v>
+      </c>
+      <c r="B2" t="n" s="65">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="58"/>
+      <c r="B3" s="61"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="77">
+        <v>7</v>
+      </c>
+      <c r="B2" t="n" s="79">
+        <v>3000.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="72"/>
+      <c r="B3" s="75"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/DeudasP.xlsx
+++ b/JavaApplication19/src/excel/DeudasP.xlsx
@@ -18,6 +18,7 @@
     <sheet name="ALFREDO PAYAN" r:id="rId6" sheetId="3"/>
     <sheet name="MARIO ANGEL" r:id="rId7" sheetId="4"/>
     <sheet name="PACO CHAVEZ" r:id="rId8" sheetId="5"/>
+    <sheet name="Juan" r:id="rId9" sheetId="6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
   <si>
     <t>CANTIDAD A PAGAR</t>
   </si>
@@ -72,6 +73,15 @@
   <si>
     <t>3000</t>
   </si>
+  <si>
+    <t>17  AGOSTO</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
 </sst>
 </file>
 
@@ -81,7 +91,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="86" x14ac:knownFonts="1">
+  <fonts count="100" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +182,90 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -728,7 +822,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -981,6 +1075,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="85" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="89" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="90" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="91" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="92" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="8" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="94" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="95" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="8" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="99" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1406,16 +1542,26 @@
         <v>28010.0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" t="n" s="85">
-        <f>C2+C3+C4</f>
-        <v>57020.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" ht="28.8" customHeight="true">
+      <c r="A5" t="s" s="86">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s" s="87">
+        <v>15</v>
+      </c>
+      <c r="C5" t="n" s="89">
+        <v>60000.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" t="n" s="90">
+        <f>SUM(C2:C5)</f>
+        <v>117020.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1689,4 +1835,41 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="39.0625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.34375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="97">
+        <v>14</v>
+      </c>
+      <c r="B2" t="n" s="99">
+        <v>60000.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="92"/>
+      <c r="B3" s="95"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/DeudasP.xlsx
+++ b/JavaApplication19/src/excel/DeudasP.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
   <si>
     <t>CANTIDAD A PAGAR</t>
   </si>
@@ -91,7 +91,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="100" x14ac:knownFonts="1">
+  <fonts count="104" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +182,30 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -822,7 +846,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1117,6 +1141,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="99" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="102" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="103" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1656,7 +1692,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -1715,11 +1751,19 @@
         <v>6000.0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" t="n" s="36">
-        <f>SUM(B2:B6)</f>
-        <v>27010.0</v>
+    <row r="7" ht="28.8" customHeight="true">
+      <c r="A7" t="s" s="100">
+        <v>14</v>
+      </c>
+      <c r="B7" t="n" s="102">
+        <v>-2000.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" t="n" s="103">
+        <f>B2+B3+B4+B5+B6+B7</f>
+        <v>25010.0</v>
       </c>
     </row>
   </sheetData>

--- a/JavaApplication19/src/excel/DeudasP.xlsx
+++ b/JavaApplication19/src/excel/DeudasP.xlsx
@@ -19,6 +19,7 @@
     <sheet name="MARIO ANGEL" r:id="rId7" sheetId="4"/>
     <sheet name="PACO CHAVEZ" r:id="rId8" sheetId="5"/>
     <sheet name="Juan" r:id="rId9" sheetId="6"/>
+    <sheet name="Lily" r:id="rId10" sheetId="7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
   <si>
     <t>CANTIDAD A PAGAR</t>
   </si>
@@ -82,6 +83,30 @@
   <si>
     <t>60000</t>
   </si>
+  <si>
+    <t>18  AGOSTO</t>
+  </si>
+  <si>
+    <t>Lily</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>Juanito Neri</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>Banquito</t>
+  </si>
+  <si>
+    <t>Banquito2</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
 </sst>
 </file>
 
@@ -91,7 +116,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="104" x14ac:knownFonts="1">
+  <fonts count="161" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +207,348 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -846,7 +1213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1153,6 +1520,177 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="103" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="107" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="108" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="109" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="110" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="8" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="112" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="113" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="8" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="117" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="121" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="122" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="123" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="124" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="8" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="126" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="127" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="8" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="131" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="135" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="136" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="137" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="138" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="8" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="140" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="141" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="8" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="145" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="149" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="150" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="151" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="152" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="8" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="154" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="155" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="8" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="159" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="160" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1525,7 +2063,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D005CDC8-9AED-4E0B-9738-C0C250B1EDAC}">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -1592,20 +2130,20 @@
     <row r="6" spans="1:3" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" t="n" s="90">
+      <c r="C6" t="n" s="160">
         <f>SUM(C2:C5)</f>
-        <v>117020.0</v>
+        <v>123020.0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1677,10 +2215,6 @@
     <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -1916,4 +2450,41 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="39.0625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.34375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="111" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="114" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="115">
+        <v>17</v>
+      </c>
+      <c r="B2" t="n" s="117">
+        <v>600000.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="110"/>
+      <c r="B3" s="113"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/DeudasP.xlsx
+++ b/JavaApplication19/src/excel/DeudasP.xlsx
@@ -20,6 +20,8 @@
     <sheet name="PACO CHAVEZ" r:id="rId8" sheetId="5"/>
     <sheet name="Juan" r:id="rId9" sheetId="6"/>
     <sheet name="Lily" r:id="rId10" sheetId="7"/>
+    <sheet name="Equisde" r:id="rId11" sheetId="8"/>
+    <sheet name="Banco" r:id="rId12" sheetId="9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="27">
   <si>
     <t>CANTIDAD A PAGAR</t>
   </si>
@@ -107,6 +109,12 @@
   <si>
     <t>6000</t>
   </si>
+  <si>
+    <t>Equisde</t>
+  </si>
+  <si>
+    <t>Banco</t>
+  </si>
 </sst>
 </file>
 
@@ -116,7 +124,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="161" x14ac:knownFonts="1">
+  <fonts count="189" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +215,174 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1213,7 +1389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1691,6 +1867,90 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="160" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="164" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="165" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="8" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="8" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="174" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="178" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="179" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="8" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="8" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="188" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2127,17 +2387,37 @@
         <v>60000.0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" t="n" s="160">
-        <f>SUM(C2:C5)</f>
-        <v>123020.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" ht="28.8" customHeight="true">
+      <c r="A6" t="s" s="161">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s" s="162">
+        <v>25</v>
+      </c>
+      <c r="C6" t="n" s="164">
+        <v>6000.0</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" customHeight="true">
+      <c r="A7" t="s" s="175">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s" s="176">
+        <v>26</v>
+      </c>
+      <c r="C7" t="n" s="178">
+        <v>50000.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" t="n" s="179">
+        <f>SUM(C2:C7)</f>
+        <v>173020.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2487,4 +2767,78 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="39.0625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.34375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="168" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="171" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="172">
+        <v>17</v>
+      </c>
+      <c r="B2" t="n" s="174">
+        <v>6000.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="167"/>
+      <c r="B3" s="170"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="39.0625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.34375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="182" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="185" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="186">
+        <v>17</v>
+      </c>
+      <c r="B2" t="n" s="188">
+        <v>50000.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="181"/>
+      <c r="B3" s="184"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/DeudasP.xlsx
+++ b/JavaApplication19/src/excel/DeudasP.xlsx
@@ -8,12 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416A3C84-00E5-405C-99DD-C90A2A7B1022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C2C8FD-CA3E-4FDB-A83C-B447F1384393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4C8DAA4E-B145-4E7B-ABC5-F58513D090FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{4C8DAA4E-B145-4E7B-ABC5-F58513D090FB}"/>
   </bookViews>
   <sheets>
     <sheet name="deudasPagar" sheetId="1" r:id="rId1"/>
+    <sheet name="ALEJANDRO" sheetId="2" r:id="rId2"/>
+    <sheet name="Erick" sheetId="3" r:id="rId3"/>
+    <sheet name="Bancos" sheetId="4" r:id="rId4"/>
+    <sheet name="EL IVAN" sheetId="5" r:id="rId5"/>
+    <sheet name="EL ALEX" sheetId="6" r:id="rId6"/>
+    <sheet name="EL JUAN" sheetId="7" r:id="rId7"/>
+    <sheet name="EL MARIO" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,19 +32,65 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="16">
   <si>
     <t>CANTIDAD A PAGAR</t>
+  </si>
+  <si>
+    <t>CREDITO DE CAJA VALES</t>
+  </si>
+  <si>
+    <t>INVERSIÒN DEL AVENGER</t>
+  </si>
+  <si>
+    <t>TIPO DE DEUDA</t>
+  </si>
+  <si>
+    <t>INVERSION</t>
+  </si>
+  <si>
+    <t>CREDITO</t>
+  </si>
+  <si>
+    <t>19  AGOSTO</t>
+  </si>
+  <si>
+    <t>ALEJANDRO</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>MONTO</t>
+  </si>
+  <si>
+    <t>Erick</t>
+  </si>
+  <si>
+    <t>Bancos</t>
+  </si>
+  <si>
+    <t>EL IVAN</t>
+  </si>
+  <si>
+    <t>EL ALEX</t>
+  </si>
+  <si>
+    <t>EL JUAN</t>
+  </si>
+  <si>
+    <t>EL MARIO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="84" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,8 +128,482 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,11 +635,27 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF03DF7B"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF22B473"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -150,50 +693,279 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="55" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="57" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="58" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="61" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="66" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="68" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="70" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="71" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="78" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="80" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="81" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="82" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="83" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -203,6 +975,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF03DF7B"/>
+      <color rgb="FF03F2F2"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -219,13 +997,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>154781</xdr:colOff>
+      <xdr:colOff>603816</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>785813</xdr:colOff>
+      <xdr:colOff>1234848</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>496932</xdr:rowOff>
     </xdr:to>
@@ -256,7 +1034,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1202531" y="11906"/>
+          <a:off x="1651566" y="11906"/>
           <a:ext cx="631032" cy="485026"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -566,39 +1344,586 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D005CDC8-9AED-4E0B-9738-C0C250B1EDAC}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:AA6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="26" width="15.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3" t="e">
-        <f>#REF!+#REF!+#REF!+#REF!+#REF!+#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>17560</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>44004</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>55000</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="17">
+        <v>26560</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="28">
+        <v>86560</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="39">
+        <v>1286560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="50">
+        <v>86650</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="61">
+        <v>1286680</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="67">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="88">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="89">
+        <f>C2+C3+C4+C5+C6+C7+C8+C9+C10</f>
+        <v>2845780</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="16">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="19">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="20">
+        <f>SUM(B2:B3)</f>
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="27">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="30">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="31">
+        <f>SUM(B2:B3)</f>
+        <v>110000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="38">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="41">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="B4" s="42">
+        <f>SUM(B2:B3)</f>
+        <v>1260000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="49">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="52">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="53">
+        <f>SUM(B2:B3)</f>
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="60">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="63">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="56"/>
+      <c r="B4" s="64">
+        <f>SUM(B2:B3)</f>
+        <v>240</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="72">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="74">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="76">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="68"/>
+      <c r="B5" s="77">
+        <f>SUM(B2:B4)</f>
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="A3:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="84">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="86">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="80"/>
+      <c r="B4" s="87">
+        <f>SUM(B2:B3)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/JavaApplication19/src/excel/DeudasP.xlsx
+++ b/JavaApplication19/src/excel/DeudasP.xlsx
@@ -15,6 +15,13 @@
   <sheets>
     <sheet name="deudasPagar" sheetId="1" r:id="rId1"/>
     <sheet name="ALEX" r:id="rId5" sheetId="2"/>
+    <sheet name="JUANITO" r:id="rId6" sheetId="3"/>
+    <sheet name="NAVARRO" r:id="rId7" sheetId="4"/>
+    <sheet name="PAQUITO" r:id="rId8" sheetId="5"/>
+    <sheet name="PACO EL CHATO" r:id="rId9" sheetId="6"/>
+    <sheet name="AFEDO" r:id="rId10" sheetId="7"/>
+    <sheet name="MARITO" r:id="rId11" sheetId="8"/>
+    <sheet name="INVERSIONITSTA" r:id="rId12" sheetId="9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="24">
   <si>
     <t>CANTIDAD A PAGAR</t>
   </si>
@@ -60,6 +67,45 @@
   <si>
     <t>MONTO</t>
   </si>
+  <si>
+    <t>JUANITO</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>NAVARRO</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>PAQUITO</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>PACO EL CHATO</t>
+  </si>
+  <si>
+    <t>AFEDO</t>
+  </si>
+  <si>
+    <t>MARITO</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>INVERSIONITSTA</t>
+  </si>
 </sst>
 </file>
 
@@ -70,7 +116,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="193" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +153,942 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -429,7 +1411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -556,6 +1538,474 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="36" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="40" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="41" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="50" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="53" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="54" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="55" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="56" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="60" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="61" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="70" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="73" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="74" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="75" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="76" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="80" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="81" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="90" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="93" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="94" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="95" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="96" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="99" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="100" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="101" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="102" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="105" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="106" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="107" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="108" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="109" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="113" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="114" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="123" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="126" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="127" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="128" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="129" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="130" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="134" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="135" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="144" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="147" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="148" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="149" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="150" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="151" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="155" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="156" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="165" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="168" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="169" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="170" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="171" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="175" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="176" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="185" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="188" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="189" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="190" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="191" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="192" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -934,7 +2384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D005CDC8-9AED-4E0B-9738-C0C250B1EDAC}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -993,18 +2443,84 @@
       <c r="B4" t="s" s="13">
         <v>7</v>
       </c>
-      <c r="C4" t="n" s="42">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" t="n" s="43">
-        <f>C2+C3+C4</f>
-        <v>72660.0</v>
-      </c>
-      <c r="D5" s="9"/>
+      <c r="C4" t="n" s="62">
+        <v>160.0</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" customHeight="true">
+      <c r="A5" t="s" s="44">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="45">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n" s="82">
+        <v>66.0</v>
+      </c>
+    </row>
+    <row r="6" ht="28.8" customHeight="true">
+      <c r="A6" t="s" s="64">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s" s="65">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n" s="67">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" customHeight="true">
+      <c r="A7" t="s" s="84">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s" s="85">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n" s="116">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="8" ht="28.8" customHeight="true">
+      <c r="A8" t="s" s="117">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s" s="118">
+        <v>19</v>
+      </c>
+      <c r="C8" t="n" s="137">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="9" ht="28.8" customHeight="true">
+      <c r="A9" t="s" s="159">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s" s="160">
+        <v>21</v>
+      </c>
+      <c r="C9" t="n" s="177">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="10" ht="28.8" customHeight="true">
+      <c r="A10" t="s" s="179">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s" s="180">
+        <v>23</v>
+      </c>
+      <c r="C10" t="n" s="199">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" t="n" s="198">
+        <f>C2+C3+C4+C5+C6+C7+C8+C9+C10</f>
+        <v>72960.0</v>
+      </c>
+      <c r="D11" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1078,4 +2594,348 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="39.0625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.34375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="55">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n" s="57">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" t="s" s="58">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n" s="60">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="4" ht="30.0" customHeight="true">
+      <c r="A4" s="50"/>
+      <c r="B4" t="n" s="61">
+        <f>SUM(B2:B3)</f>
+        <v>120.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="39.0625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.34375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="75">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n" s="77">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" t="s" s="78">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n" s="80">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="4" ht="30.0" customHeight="true">
+      <c r="A4" s="70"/>
+      <c r="B4" t="n" s="81">
+        <f>SUM(B2:B3)</f>
+        <v>12.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="39.0625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.34375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="95">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n" s="97">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" t="s" s="98">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n" s="100">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4" ht="30.0" customHeight="true">
+      <c r="A4" t="s" s="104">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n" s="106">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="5" ht="30.0" customHeight="true">
+      <c r="A5" t="s" s="110">
+        <v>6</v>
+      </c>
+      <c r="B5" t="n" s="112">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="6" ht="30.0" customHeight="true">
+      <c r="A6" s="90"/>
+      <c r="B6" t="n" s="113">
+        <f>SUM(B2:B5)</f>
+        <v>32.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="39.0625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.34375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="128">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n" s="130">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" t="s" s="131">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n" s="133">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="4" ht="30.0" customHeight="true">
+      <c r="A4" s="123"/>
+      <c r="B4" t="n" s="134">
+        <f>SUM(B2:B3)</f>
+        <v>12.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="39.0625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.34375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="149">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n" s="151">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" t="s" s="152">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n" s="154">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="4" ht="30.0" customHeight="true">
+      <c r="A4" s="144"/>
+      <c r="B4" t="n" s="155">
+        <f>SUM(B2:B3)</f>
+        <v>40.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="39.0625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.34375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="166" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="169" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="170">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n" s="172">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" t="s" s="173">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n" s="175">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="4" ht="30.0" customHeight="true">
+      <c r="A4" s="165"/>
+      <c r="B4" t="n" s="176">
+        <f>SUM(B2:B3)</f>
+        <v>10.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="39.0625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.34375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="186" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="189" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="190">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n" s="192">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="185"/>
+      <c r="B3" t="n" s="196">
+        <f>SUM(B2:B3)</f>
+        <v>120.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/DeudasP.xlsx
+++ b/JavaApplication19/src/excel/DeudasP.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="25">
   <si>
     <t>CANTIDAD A PAGAR</t>
   </si>
@@ -106,6 +106,9 @@
   <si>
     <t>INVERSIONITSTA</t>
   </si>
+  <si>
+    <t>213</t>
+  </si>
 </sst>
 </file>
 
@@ -116,7 +119,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="193" x14ac:knownFonts="1">
+  <fonts count="199" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +156,42 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1411,7 +1450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2006,6 +2045,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="192" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="195" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="196" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="197" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="198" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2509,16 +2566,16 @@
       <c r="B10" t="s" s="180">
         <v>23</v>
       </c>
-      <c r="C10" t="n" s="199">
-        <v>60.0</v>
+      <c r="C10" t="n" s="204">
+        <v>273.0</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
-      <c r="C11" t="n" s="198">
+      <c r="C11" t="n" s="205">
         <f>C2+C3+C4+C5+C6+C7+C8+C9+C10</f>
-        <v>72960.0</v>
+        <v>73113.0</v>
       </c>
       <c r="D11" s="9"/>
     </row>
@@ -2902,7 +2959,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2929,10 +2986,18 @@
       </c>
     </row>
     <row r="3" ht="30.0" customHeight="true">
-      <c r="A3" s="185"/>
-      <c r="B3" t="n" s="196">
+      <c r="A3" t="s" s="200">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n" s="202">
+        <v>213.0</v>
+      </c>
+    </row>
+    <row r="4" ht="30.0" customHeight="true">
+      <c r="A4" s="185"/>
+      <c r="B4" t="n" s="203">
         <f>SUM(B2:B3)</f>
-        <v>120.0</v>
+        <v>273.0</v>
       </c>
     </row>
   </sheetData>

--- a/JavaApplication19/src/excel/DeudasP.xlsx
+++ b/JavaApplication19/src/excel/DeudasP.xlsx
@@ -22,6 +22,8 @@
     <sheet name="AFEDO" r:id="rId10" sheetId="7"/>
     <sheet name="MARITO" r:id="rId11" sheetId="8"/>
     <sheet name="INVERSIONITSTA" r:id="rId12" sheetId="9"/>
+    <sheet name="holi" r:id="rId13" sheetId="10"/>
+    <sheet name="hola" r:id="rId14" sheetId="11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="28">
   <si>
     <t>CANTIDAD A PAGAR</t>
   </si>
@@ -109,6 +111,15 @@
   <si>
     <t>213</t>
   </si>
+  <si>
+    <t>holi</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>hola</t>
+  </si>
 </sst>
 </file>
 
@@ -119,7 +130,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="199" x14ac:knownFonts="1">
+  <fonts count="227" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +167,174 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1450,7 +1629,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2063,6 +2242,90 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="198" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="202" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="203" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="212" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="216" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="217" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="226" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2441,7 +2704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D005CDC8-9AED-4E0B-9738-C0C250B1EDAC}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -2570,14 +2833,36 @@
         <v>273.0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" t="n" s="205">
-        <f>C2+C3+C4+C5+C6+C7+C8+C9+C10</f>
-        <v>73113.0</v>
-      </c>
-      <c r="D11" s="9"/>
+    <row r="11" ht="28.8" customHeight="true">
+      <c r="A11" t="s" s="206">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s" s="207">
+        <v>25</v>
+      </c>
+      <c r="C11" t="n" s="209">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="12" ht="28.8" customHeight="true">
+      <c r="A12" t="s" s="220">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s" s="221">
+        <v>27</v>
+      </c>
+      <c r="C12" t="n" s="223">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" t="n" s="224">
+        <f>SUM(C2:C12)</f>
+        <v>73126.0</v>
+      </c>
+      <c r="D13" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2586,6 +2871,80 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="39.0625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.34375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="216" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="217">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n" s="219">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="212"/>
+      <c r="B3" s="215"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="39.0625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.34375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="227" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="230" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="231">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n" s="233">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="226"/>
+      <c r="B3" s="229"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 

--- a/JavaApplication19/src/excel/DeudasP.xlsx
+++ b/JavaApplication19/src/excel/DeudasP.xlsx
@@ -24,6 +24,8 @@
     <sheet name="INVERSIONITSTA" r:id="rId12" sheetId="9"/>
     <sheet name="holi" r:id="rId13" sheetId="10"/>
     <sheet name="hola" r:id="rId14" sheetId="11"/>
+    <sheet name="MARIO ANGEL" r:id="rId15" sheetId="12"/>
+    <sheet name="BANCO JIDOTAS" r:id="rId16" sheetId="13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="34">
   <si>
     <t>CANTIDAD A PAGAR</t>
   </si>
@@ -120,6 +122,24 @@
   <si>
     <t>hola</t>
   </si>
+  <si>
+    <t>21  AGOSTO</t>
+  </si>
+  <si>
+    <t>MARIO ANGEL</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>BANCO JIDOTAS</t>
+  </si>
+  <si>
+    <t>12455</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
 </sst>
 </file>
 
@@ -130,7 +150,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="227" x14ac:knownFonts="1">
+  <fonts count="265" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +187,234 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1629,7 +1877,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="272">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2326,6 +2574,120 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="226" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="230" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="231" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="240" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="244" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="245" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="254" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="257" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="258" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="259" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="260" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="9" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="263" fillId="9" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="264" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2704,7 +3066,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D005CDC8-9AED-4E0B-9738-C0C250B1EDAC}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -2807,8 +3169,8 @@
       <c r="B8" t="s" s="118">
         <v>19</v>
       </c>
-      <c r="C8" t="n" s="137">
-        <v>6.0</v>
+      <c r="C8" t="n" s="266">
+        <v>7.0</v>
       </c>
     </row>
     <row r="9" ht="28.8" customHeight="true">
@@ -2855,14 +3217,36 @@
         <v>1.0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" t="n" s="224">
-        <f>SUM(C2:C12)</f>
-        <v>73126.0</v>
-      </c>
-      <c r="D13" s="9"/>
+    <row r="13" ht="28.8" customHeight="true">
+      <c r="A13" t="s" s="234">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s" s="235">
+        <v>29</v>
+      </c>
+      <c r="C13" t="n" s="237">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="14" ht="28.8" customHeight="true">
+      <c r="A14" t="s" s="248">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s" s="249">
+        <v>31</v>
+      </c>
+      <c r="C14" t="n" s="251">
+        <v>12455.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" t="n" s="267">
+        <f>C2+C3+C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14</f>
+        <v>85705.0</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2948,6 +3332,80 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="39.0625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.34375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="241" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="244" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="245">
+        <v>28</v>
+      </c>
+      <c r="B2" t="n" s="247">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="240"/>
+      <c r="B3" s="243"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="39.0625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.34375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="255" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="258" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="259">
+        <v>28</v>
+      </c>
+      <c r="B2" t="n" s="261">
+        <v>12455.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="254"/>
+      <c r="B3" s="257"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B6"/>
@@ -3174,7 +3632,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3209,10 +3667,18 @@
       </c>
     </row>
     <row r="4" ht="30.0" customHeight="true">
-      <c r="A4" s="123"/>
-      <c r="B4" t="n" s="134">
-        <f>SUM(B2:B3)</f>
-        <v>12.0</v>
+      <c r="A4" t="s" s="262">
+        <v>28</v>
+      </c>
+      <c r="B4" t="n" s="264">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5" ht="30.0" customHeight="true">
+      <c r="A5" s="123"/>
+      <c r="B5" t="n" s="265">
+        <f>SUM(B2:B4)</f>
+        <v>13.0</v>
       </c>
     </row>
   </sheetData>
@@ -3270,7 +3736,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3305,10 +3771,18 @@
       </c>
     </row>
     <row r="4" ht="30.0" customHeight="true">
-      <c r="A4" s="165"/>
-      <c r="B4" t="n" s="176">
-        <f>SUM(B2:B3)</f>
-        <v>10.0</v>
+      <c r="A4" t="s" s="268">
+        <v>28</v>
+      </c>
+      <c r="B4" t="n" s="270">
+        <v>-1234.0</v>
+      </c>
+    </row>
+    <row r="5" ht="30.0" customHeight="true">
+      <c r="A5" s="165"/>
+      <c r="B5" t="n" s="271">
+        <f>B2+B3+B4</f>
+        <v>-1224.0</v>
       </c>
     </row>
   </sheetData>
